--- a/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
+++ b/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\04. Date si validare XLSX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\App.Simpla\Data-IN-OUT\04. Date si validare XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27CB898-26E5-4886-A7C0-3C4F69298AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBD4A2-A2E8-491B-950F-9E4337C3D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8310" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>path</t>
   </si>
@@ -41,6 +41,15 @@
     <t>considered</t>
   </si>
   <si>
+    <t>date_serv_start</t>
+  </si>
+  <si>
+    <t>date_serv_end</t>
+  </si>
+  <si>
+    <t>vat_valid</t>
+  </si>
+  <si>
     <t>pdf_name</t>
   </si>
   <si>
@@ -98,16 +107,10 @@
     <t>vat_amount_confidence</t>
   </si>
   <si>
-    <t>date_serv_start</t>
-  </si>
-  <si>
-    <t>date_serv_end</t>
-  </si>
-  <si>
-    <t>vat_valid</t>
-  </si>
-  <si>
-    <t>HA_DONE_-_PTSI_SI_26406_ocr</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HA DONE  - PTSI SI 26406_ocr</t>
   </si>
   <si>
     <t>26406</t>
@@ -122,13 +125,49 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>['7N914AT HP P24v G5 FHD Monitor\nDISPLAY SIZE 23.8"\nPANEL VA\nRESOLUTION 1920 x 1080 @ 75 Hz\nDISPLAY INPUT VGA, HDMI\nCABLES INCLUDED Power cord, HDMI\nSN: CNC4300HD0 CNC4300HCF\nCNC4300HCT CNC4300HCM']</t>
+    <t>['4 units 7N914AT HP P24v G5 FHD Monitor', 'DISPLAY SIZE 23.8"', 'PANEL VA', 'RESOLUTION 1920 x 1080 @ 75 Hz', 'DISPLAY INPUT VGA, HDMI', 'CABLES INCLUDED Power cord, HDMI', 'SN: CNC4300HD0 CNC4300HCF CNC4300HCT CNC4300HCM']</t>
   </si>
   <si>
     <t>Unusual date format: Nov. 7, 2024</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>21965_ocr</t>
+  </si>
+  <si>
+    <t>30-04-2024</t>
+  </si>
+  <si>
+    <t>S.C. ECO PUBLIC S.R.L.</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>['Lavoar mobil PRESTARI SERV.CF.CNTR.: 7112/13.09 2023\n12 € + TVA / saptamana / bucata 1€ = 4,9758 RON\nPerioada: 01.04.2024-30.04.2024\nLocatia: AEROPORT BANEASA']</t>
+  </si>
+  <si>
+    <t>Missing invoice number</t>
+  </si>
+  <si>
+    <t>20535_ocr</t>
+  </si>
+  <si>
+    <t>JAR010112165</t>
+  </si>
+  <si>
+    <t>07.04.2024</t>
+  </si>
+  <si>
+    <t>Orange Romania S.A.</t>
+  </si>
+  <si>
+    <t>LEI</t>
+  </si>
+  <si>
+    <t>['Abonament lunar date mobile     (6)     06.04.24 - 05.05.24      382,98', 'Abonament lunar voce           (1)     07.03.24 - 05.04.24      46,81', 'Abonament lunar voce           (1)     12.03.24 - 05.04.24      39,01', 'Abonament lunar voce           (41)    06.04.24 - 05.05.24      2.046,86', 'Apeluri voce\n06.03.24 - 05.04.24\n341,37', 'Apeluri internationale\n10,59', 'SMS\n0,30', 'Redirect Nat\n119,31', 'SMS internationale\n18,99', 'Conferinta in alte retele mob.']</t>
+  </si>
+  <si>
+    <t>Unusual date format: 07.04.2024; Total mismatch: 2.58071 ≠ 2.15271 + 40901.0</t>
   </si>
   <si>
     <t>PTSI_SI_25342_ocr</t>
@@ -147,51 +186,6 @@
   </si>
   <si>
     <t>Unusual date format: July 1 2024</t>
-  </si>
-  <si>
-    <t>21965_ocr</t>
-  </si>
-  <si>
-    <t>30-04-2024</t>
-  </si>
-  <si>
-    <t>S.C. ECO PUBLIC S.R.L.</t>
-  </si>
-  <si>
-    <t>RON</t>
-  </si>
-  <si>
-    <t>['Lavoar mobil PRESTARI SERV.CF.CNTR.: 7112/13.09 2023\n12 € + TVA / saptamana / bucata 1€ = 4,9758 RON\nPerioada: 01.04.2024-30.04.2024\nLocatia: AEROPORT BANEASA']</t>
-  </si>
-  <si>
-    <t>Missing invoice number</t>
-  </si>
-  <si>
-    <t>20535_ocr</t>
-  </si>
-  <si>
-    <t>JAR010112165</t>
-  </si>
-  <si>
-    <t>07.04.2024</t>
-  </si>
-  <si>
-    <t>Orange Romania S.A.</t>
-  </si>
-  <si>
-    <t>LEI</t>
-  </si>
-  <si>
-    <t>['Abonament lunar date mobile  (6)      06.04.24 - 05.05.24       382,98', 'Abonament lunar voce        (1)      07.03.24 - 05.04.24       46,81', 'Abonament lunar voce        (1)      12.03.24 - 05.04.24       39,01', 'Abonament lunar voce        (41)     06.04.24 - 05.05.24       2.046,86', 'Apeluri voce                                         341,37', 'Apeluri internationale                                10,59', 'SMS                                                   0,30', 'Redirect Nat                                          119,31', 'SMS internationale                                     18,99', 'Conferinta in alte retele mob.                       490,56']</t>
-  </si>
-  <si>
-    <t>Unusual date format: 07.04.2024; Total mismatch: 2.58071 ≠ 2.15271 + 40901.0</t>
-  </si>
-  <si>
-    <t>06/04/2024</t>
-  </si>
-  <si>
-    <t>05/05/2024</t>
   </si>
 </sst>
 </file>
@@ -247,11 +241,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,34 +552,13 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -663,53 +637,53 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>HYPERLINK("C:/Users/george.nadrag/00. Coduri structurate/01. Gemini OCR PDF to TXT/IN/HA_DONE_-_PTSI_SI_26406.pdf", "HA_DONE_-_PTSI_SI_26406.pdf")</f>
-        <v>HA_DONE_-_PTSI_SI_26406.pdf</v>
+        <f>HYPERLINK("C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/HA DONE  - PTSI SI 26406.pdf", "HA DONE  - PTSI SI 26406.pdf")</f>
+        <v>HA DONE  - PTSI SI 26406.pdf</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45292</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45703</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="H2">
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
         <v>25600</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>22857.14</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>2742.86</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2">
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2">
         <v>100</v>
       </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2">
-        <v>10</v>
-      </c>
-      <c r="O2">
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
+      <c r="P2" t="s">
+        <v>31</v>
       </c>
       <c r="Q2">
         <v>10</v>
@@ -726,216 +700,207 @@
       <c r="U2">
         <v>10</v>
       </c>
-      <c r="V2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
+      <c r="V2">
+        <v>10</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>HYPERLINK("C:/Users/george.nadrag/00. Coduri structurate/01. Gemini OCR PDF to TXT/IN/PTSI_SI_25342.pdf", "PTSI_SI_25342.pdf")</f>
-        <v>PTSI_SI_25342.pdf</v>
+        <f>HYPERLINK("C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/21965.pdf", "21965.pdf")</f>
+        <v>21965.pdf</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>30452</v>
+      </c>
+      <c r="L3">
+        <v>25590</v>
+      </c>
+      <c r="M3">
+        <v>4862</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3">
+        <v>86.25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3">
-        <v>2992000</v>
-      </c>
-      <c r="I3">
-        <v>2671428.5699999998</v>
-      </c>
-      <c r="J3">
-        <v>320571.43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3">
-        <v>96.25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3">
-        <v>10</v>
-      </c>
-      <c r="O3">
-        <v>10</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3">
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
         <v>9</v>
       </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
-      </c>
       <c r="U3">
         <v>10</v>
       </c>
-      <c r="V3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" t="b">
-        <v>1</v>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>HYPERLINK("C:/Users/george.nadrag/00. Coduri structurate/01. Gemini OCR PDF to TXT/IN/21965.pdf", "21965.pdf")</f>
-        <v>21965.pdf</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <f>HYPERLINK("C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/20535.pdf", "20535.pdf")</f>
+        <v>20535.pdf</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>339979</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="H4">
-        <v>30452</v>
-      </c>
-      <c r="I4">
-        <v>25590</v>
-      </c>
-      <c r="J4">
-        <v>4862</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
+      <c r="K4">
+        <v>2.5807099999999998</v>
+      </c>
       <c r="L4">
-        <v>86.25</v>
-      </c>
-      <c r="M4" t="s">
+        <v>2.1527099999999999</v>
+      </c>
+      <c r="M4">
+        <v>40901</v>
+      </c>
+      <c r="N4" t="s">
         <v>43</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
-        <v>10</v>
-      </c>
-      <c r="P4">
-        <v>10</v>
+        <v>98.75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
       </c>
       <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
         <v>9</v>
       </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="S4">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <v>10</v>
-      </c>
       <c r="U4">
         <v>10</v>
       </c>
-      <c r="V4" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>10</v>
+      </c>
+      <c r="X4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>HYPERLINK("C:/Users/george.nadrag/00. Coduri structurate/01. Gemini OCR PDF to TXT/IN/20535.pdf", "20535.pdf")</f>
-        <v>20535.pdf</v>
-      </c>
-      <c r="B5">
+        <f>HYPERLINK("C:\Users\george.nadrag\01.Cursor_WF\workflow.procesare\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/PTSI_SI_25342.pdf", "PTSI_SI_25342.pdf")</f>
+        <v>PTSI_SI_25342.pdf</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>48</v>
       </c>
-      <c r="H5">
-        <v>2.5807099999999998</v>
-      </c>
-      <c r="I5">
-        <v>2.1527099999999999</v>
-      </c>
-      <c r="J5">
-        <v>40901</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>2992000</v>
+      </c>
+      <c r="L5">
+        <v>2671428.5699999998</v>
+      </c>
+      <c r="M5">
+        <v>320571.43</v>
+      </c>
+      <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="L5">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5">
+        <v>98.75</v>
+      </c>
+      <c r="P5" t="s">
         <v>50</v>
       </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
       <c r="Q5">
         <v>10</v>
       </c>
@@ -946,19 +911,19 @@
         <v>10</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U5">
         <v>10</v>
       </c>
-      <c r="V5" t="s">
-        <v>51</v>
-      </c>
-      <c r="W5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" t="b">
-        <v>0</v>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
+++ b/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,193 +436,305 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>source_file</t>
+          <t>path</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>considered</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>date_serv_start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date_serv_end</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>vat_valid</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pdf_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>invoice_number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>invoice_date</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>vendor_name</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>extracted_dates</t>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total_without_vat</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>items_details</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>quality_score</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>validation_issues</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_number_confidence</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>invoice_date_confidence</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>vendor_name_confidence</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>items_details_confidence</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>total_amount_confidence</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>total_without_vat_confidence</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>currency_confidence</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>vat_amount_confidence</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>20535_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/Factura GEN 0002  10.10.2024.pdf", "Factura GEN 0002  10.10.2024.pdf")</f>
+        <v/>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
+          <t>Factura GEN 0002  10.10.2024_ocr</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No items details</t>
-        </is>
+          <t>GEN 0002</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10.10.2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>GEN OPERATIONS S.R.L.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanţa']</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Unusual date format: 10.10.2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="n">
+        <v>9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>10</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>21965_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3">
+        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/PTSI SI 25342.pdf", "PTSI SI 25342.pdf")</f>
+        <v/>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
+          <t>PTSI SI 25342_ocr</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No items details</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Factura GEN 0002  10.10.2024_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>No items details</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HA DONE  - PTSI SI 26406_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>No items details</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PTSI SI 25342_ocr.txt</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ERROR</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Expecting value: line 1 column 1 (char 0)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>No items details</t>
-        </is>
+          <t>25342</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>July 1, 2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>PRODUCTIVITY TECHNOLOGIES SERVICES (PTSI), INC.</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PHP</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>2992000</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2.671,428.57</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>320571.43</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>['Legion Slim 5-14APH8 (82750043PH) 107,321 43 2146,428 57\nAMD Ryzen™ 9794CHS (807167,407520Hz, 8MB L2710MB L3)\nNMDIWD GeForce RTX 1060 8GB GDDR6, Boost Clock, 2370ΜΗΣ TOP 105W\nAMD SoC Platfonn\n18GG Suidered LPDDR5A-0400\nMemory soldered to systemboard, no slots\n16/38 soldered memory, not upgradable\nITB SSD M 22280 PCIe@ 4 0x4 NVMed', 'Workstation TS P3_Tower_W630_ES_R 121,600 436,70571\nPhilippines\nStandard Image (Prelead)\nWindows 11 Pro 64\nWindows 11 Pro 64 English\nTower 1100W 92% Adapter\n13th Generation Intel® Core™ 19-13900 vPro® Processor (E-cores up to 4.20 GHz P-cores up to 5.20 GHz)', 'Eaton 5A 2200I-NEMA 2200VA 1200W 9.553.57 38.214 29\nSpecs\nGNEMA Universal Socket\nLine Interactive | with AVR\nCircuit Breaker Protection\n2 Years Warranty']</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>91.25</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Unusual date format: July 1, 2024; Could not verify totals calculation</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>10</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>10</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
+++ b/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>RON</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -608,11 +608,11 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanţa']</t>
+          <t>['Intocmire lista cantitati - Pasaj superior peste CF Port Constanța']</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>86.25</v>
+        <v>83.75</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -642,99 +642,6 @@
       </c>
       <c r="X2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <f>HYPERLINK("C:\Users\tymyp\Desktop\Coduri-Cursor\workflow.procesare.ok\App.Simpla\Data-IN-OUT\01. Gemini OCR PDF to TXT\IN/PTSI SI 25342.pdf", "PTSI SI 25342.pdf")</f>
-        <v/>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>PTSI SI 25342_ocr</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>25342</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>July 1, 2024</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>PRODUCTIVITY TECHNOLOGIES SERVICES (PTSI), INC.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>PHP</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>2992000</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2.671,428.57</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>320571.43</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>['Legion Slim 5-14APH8 (82750043PH) 107,321 43 2146,428 57\nAMD Ryzen™ 9794CHS (807167,407520Hz, 8MB L2710MB L3)\nNMDIWD GeForce RTX 1060 8GB GDDR6, Boost Clock, 2370ΜΗΣ TOP 105W\nAMD SoC Platfonn\n18GG Suidered LPDDR5A-0400\nMemory soldered to systemboard, no slots\n16/38 soldered memory, not upgradable\nITB SSD M 22280 PCIe@ 4 0x4 NVMed', 'Workstation TS P3_Tower_W630_ES_R 121,600 436,70571\nPhilippines\nStandard Image (Prelead)\nWindows 11 Pro 64\nWindows 11 Pro 64 English\nTower 1100W 92% Adapter\n13th Generation Intel® Core™ 19-13900 vPro® Processor (E-cores up to 4.20 GHz P-cores up to 5.20 GHz)', 'Eaton 5A 2200I-NEMA 2200VA 1200W 9.553.57 38.214 29\nSpecs\nGNEMA Universal Socket\nLine Interactive | with AVR\nCircuit Breaker Protection\n2 Years Warranty']</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>91.25</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Unusual date format: July 1, 2024; Could not verify totals calculation</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v>9</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10</v>
-      </c>
-      <c r="S3" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>10</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
+++ b/Data-IN-OUT/04. Date si validare XLSX/4.transformed_data.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>RON</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="R2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
